--- a/data/trans_orig/P79A4_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79A4_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3659</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8326</v>
+        <v>9184</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2898363493325729</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0</v>
+        <v>0.0470994667443478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6595104405362409</v>
+        <v>0.72741751571959</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>6215</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3136</v>
+        <v>3413</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7975</v>
+        <v>7961</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7181545681794551</v>
+        <v>0.7181545681794549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.362320255006309</v>
+        <v>0.3944052427762011</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9214874013704651</v>
+        <v>0.9199033518685827</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -783,19 +783,19 @@
         <v>9874</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4281</v>
+        <v>4639</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15607</v>
+        <v>15627</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4640324374592892</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2011885167813834</v>
+        <v>0.217998099359038</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7334358171142509</v>
+        <v>0.7343714675670004</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8966</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4281</v>
+        <v>3441</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12625</v>
+        <v>12030</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.710163650667427</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3390824857029842</v>
+        <v>0.2725824842804102</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1</v>
+        <v>0.9529005332556522</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>2439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5518</v>
+        <v>5241</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2818454318205449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.078512598629535</v>
+        <v>0.0800966481314172</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6376797449936906</v>
+        <v>0.605594757223799</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -854,19 +854,19 @@
         <v>11405</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5672</v>
+        <v>5652</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16998</v>
+        <v>16640</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5359675625407108</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2665641828857493</v>
+        <v>0.2656285324329994</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7988114832186162</v>
+        <v>0.7820019006409621</v>
       </c>
     </row>
     <row r="6">
@@ -958,7 +958,7 @@
         <v>5045</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1342</v>
+        <v>1284</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>6120</v>
@@ -967,7 +967,7 @@
         <v>0.8242690231790519</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.219212646401066</v>
+        <v>0.2097248162806826</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>7127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3892</v>
+        <v>3608</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>8203</v>
@@ -1001,7 +1001,7 @@
         <v>0.8688885008670906</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4745188767860682</v>
+        <v>0.4398809822420503</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4685</v>
+        <v>4767</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1757309768209481</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7655257333278331</v>
+        <v>0.778858106263825</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4311</v>
+        <v>4595</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1311114991329095</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5254811232139335</v>
+        <v>0.5601190177579509</v>
       </c>
     </row>
     <row r="9">
@@ -1308,19 +1308,19 @@
         <v>8704</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3196</v>
+        <v>3644</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14377</v>
+        <v>14321</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4643227137346333</v>
+        <v>0.4643227137346334</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1705252439725731</v>
+        <v>0.1943889212680483</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7669815054933348</v>
+        <v>0.764010627221537</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1329,19 +1329,19 @@
         <v>9714</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6424</v>
+        <v>6773</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12153</v>
+        <v>12136</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7992928786629157</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5285902286966705</v>
+        <v>0.5572729994998205</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>1</v>
+        <v>0.9985628398894143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1350,19 +1350,19 @@
         <v>18417</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10613</v>
+        <v>11510</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24498</v>
+        <v>24175</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5960736388762953</v>
+        <v>0.5960736388762952</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3434965193549841</v>
+        <v>0.3725129157656568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7928566491138113</v>
+        <v>0.7824291778356733</v>
       </c>
     </row>
     <row r="14">
@@ -1379,19 +1379,19 @@
         <v>10041</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4368</v>
+        <v>4424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15549</v>
+        <v>15101</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5356772862653668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2330184945066652</v>
+        <v>0.235989372778463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.829474756027427</v>
+        <v>0.8056110787319519</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1400,19 +1400,19 @@
         <v>2439</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5729</v>
+        <v>5380</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2007071213370842</v>
+        <v>0.2007071213370843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0</v>
+        <v>0.001437160110575823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4714097713033295</v>
+        <v>0.4427270005001793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1421,19 +1421,19 @@
         <v>12481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6400</v>
+        <v>6723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20285</v>
+        <v>19388</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4039263611237049</v>
+        <v>0.4039263611237048</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2071433508861885</v>
+        <v>0.2175708221643267</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6565034806450158</v>
+        <v>0.6274870842343431</v>
       </c>
     </row>
     <row r="15">
